--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_development\grocery_web_backend\grocery_system_3sep_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C807C-90FC-4BFE-84CC-0103A07EFA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0B099-2FFD-4335-943D-3D331D05F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="80">
   <si>
     <t>category_Id</t>
   </si>
@@ -239,21 +239,6 @@
     <t>milk_brand_remaining_quantity</t>
   </si>
   <si>
-    <t>Table - MILK_BRAND_BUY_DATA</t>
-  </si>
-  <si>
-    <t>buy_id</t>
-  </si>
-  <si>
-    <t>Table - MILK_BRAND_SELL_DATA</t>
-  </si>
-  <si>
-    <t>sell_id</t>
-  </si>
-  <si>
-    <t>quantity_id</t>
-  </si>
-  <si>
     <t>milk_brand_total_buy_price</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
     <t>18+20+3</t>
   </si>
   <si>
-    <t>Table - MILK_BRAND_QUANTITY_PRICE_DATA</t>
-  </si>
-  <si>
     <t>current_buy_price</t>
   </si>
   <si>
@@ -285,6 +267,15 @@
   </si>
   <si>
     <t>out_of_stock ['Y', 'N']</t>
+  </si>
+  <si>
+    <t>Table - MILK_BRAND_BUY_DETAILS</t>
+  </si>
+  <si>
+    <t>detail_id</t>
+  </si>
+  <si>
+    <t>Table - MILK_BRAND_SELL_DETAILS</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1244,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,12 +1484,12 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1509,7 +1500,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -1521,10 +1512,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1589,7 +1580,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1599,7 +1590,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -1611,10 +1602,10 @@
         <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1697,7 +1688,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1708,25 +1699,25 @@
     </row>
     <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1749,7 +1740,7 @@
         <v>21</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
